--- a/question2/test_file/留言主题分词展示.xlsx
+++ b/question2/test_file/留言主题分词展示.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,7 +374,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>分词结果</t>
+          <t>未使用自定义词典分词</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>使用自定义词典分词</t>
         </is>
       </c>
     </row>
@@ -386,6 +391,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>A3 区 一米阳光 婚纱 艺术摄影 合法 纳税</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>A3区 一米阳光 婚纱 艺术摄影 合法 纳税</t>
         </is>
       </c>
@@ -398,6 +408,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>咨询 A6 区 道路 命名 规划 初步 成果 公示 城乡 门牌</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>咨询 A6区 道路 命名 规划 初步 成果 公示 城乡 门牌</t>
         </is>
       </c>
@@ -410,6 +425,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>请 拆除 A7 县星 沙一区 86 栋 东边 住户 楼顶 违建</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>请 拆除 A7县 星沙一区 86 栋 东边 住户 楼顶 违建</t>
         </is>
       </c>
@@ -422,6 +442,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>质疑 A1 区 地方 美食 广场 无证无照 经营</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>质疑 A1区 地方 美食 广场 无证无照 经营</t>
         </is>
       </c>
@@ -434,6 +459,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>A7 县 深业 睿城 开发商 违法 出售 人防 车位 请 政府 查处</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>A7县 深业睿城 开发商 违法 出售 人防 车位 请 政府 查处</t>
         </is>
       </c>
@@ -446,6 +476,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>A6 区 河东 交通</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>A6区 河东 交通</t>
         </is>
       </c>
@@ -458,6 +493,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>A7 县金 贸路 拓宽 白改黑</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>A7县 金贸路 拓宽 白改黑</t>
         </is>
       </c>
@@ -470,6 +510,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>A7 县 东方 一品 小区业主 违法 圈占 公共 绿化 请 查处</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>A7县 东方 一品 小区业主 违法 圈占 公共 绿化 请 查处</t>
         </is>
       </c>
@@ -482,6 +527,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>建议 拆除 A7 县星 沙 文化公园 里 违建</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>建议 拆除 A7县 星沙文化公园 里 违建</t>
         </is>
       </c>
@@ -493,6 +543,11 @@
         </is>
       </c>
       <c r="B11" t="inlineStr">
+        <is>
+          <t>A7 县 深业 睿城 小区 f 区 地下 车位 计入 公摊面积</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>A7县 深业睿城 小区 f 区 地下 车位 计入 公摊面积</t>
         </is>
